--- a/data/criminal age and offense type dataset.xlsx
+++ b/data/criminal age and offense type dataset.xlsx
@@ -1,20 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dd3952b74b0c114f/Documents/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b27d89b67c722696/Documents/Final-Assignment/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{58055BFE-9CB3-4E2C-AEC3-7B858C1676F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A85F905-7269-44A0-9F9A-9317FA0ACB01}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{58055BFE-9CB3-4E2C-AEC3-7B858C1676F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A07293E-8E24-4561-A607-02271EA458F5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="14220" xr2:uid="{9A679B19-840E-4864-B621-CAC6CD5326B3}"/>
+    <workbookView xWindow="4035" yWindow="1350" windowWidth="16200" windowHeight="9307" xr2:uid="{9A679B19-840E-4864-B621-CAC6CD5326B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="IQ_CH">110000</definedName>
+    <definedName name="IQ_CQ">5000</definedName>
+    <definedName name="IQ_CY">10000</definedName>
+    <definedName name="IQ_DAILY">500000</definedName>
+    <definedName name="IQ_FH">100000</definedName>
+    <definedName name="IQ_FQ">500</definedName>
+    <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
+    <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
+    <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
+    <definedName name="IQ_FWD_FY" hidden="1">1001</definedName>
+    <definedName name="IQ_FWD_FY1" hidden="1">1002</definedName>
+    <definedName name="IQ_FWD_FY2" hidden="1">1003</definedName>
+    <definedName name="IQ_FWD_Q" hidden="1">501</definedName>
+    <definedName name="IQ_FWD_Q1" hidden="1">502</definedName>
+    <definedName name="IQ_FWD_Q2" hidden="1">503</definedName>
+    <definedName name="IQ_FY">1000</definedName>
+    <definedName name="IQ_LATESTK" hidden="1">1000</definedName>
+    <definedName name="IQ_LATESTQ" hidden="1">500</definedName>
+    <definedName name="IQ_LTM">2000</definedName>
+    <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
+    <definedName name="IQ_MONTH">15000</definedName>
+    <definedName name="IQ_NTM">6000</definedName>
+    <definedName name="IQ_TODAY" hidden="1">0</definedName>
+    <definedName name="IQ_WEEK">50000</definedName>
+    <definedName name="IQ_YTD">3000</definedName>
+    <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -119,7 +147,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0;#,##0;#,##0;* @"/>
+    <numFmt numFmtId="164" formatCode="#,##0;#,##0;#,##0;* @"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -266,11 +294,11 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -280,7 +308,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -640,17 +668,17 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="35.7265625" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="1" max="1" width="35.73046875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" customWidth="1"/>
+    <col min="4" max="4" width="15.06640625" customWidth="1"/>
+    <col min="5" max="5" width="13.265625" customWidth="1"/>
+    <col min="6" max="6" width="15.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="78.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="79.150000000000006" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,7 +701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -696,7 +724,7 @@
         <v>0.1734</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -719,7 +747,7 @@
         <v>0.39343</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -742,7 +770,7 @@
         <v>0.35852000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -765,7 +793,7 @@
         <v>-4.2770000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -788,7 +816,7 @@
         <v>3.363E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -811,7 +839,7 @@
         <v>-0.28097</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
@@ -834,7 +862,7 @@
         <v>1.959E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -857,7 +885,7 @@
         <v>-0.23208999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
@@ -880,7 +908,7 @@
         <v>0.30252000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
@@ -903,7 +931,7 @@
         <v>0.39604</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
@@ -926,7 +954,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -949,7 +977,7 @@
         <v>0.38085999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -972,7 +1000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -995,7 +1023,7 @@
         <v>0.61978999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
@@ -1018,7 +1046,7 @@
         <v>0.10098</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>7</v>
       </c>
@@ -1041,7 +1069,7 @@
         <v>0.27731</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>8</v>
       </c>
@@ -1064,7 +1092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>9</v>
       </c>
@@ -1087,7 +1115,7 @@
         <v>-2.632E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>10</v>
       </c>
@@ -1110,7 +1138,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>11</v>
       </c>
@@ -1133,7 +1161,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>12</v>
       </c>
@@ -1156,7 +1184,7 @@
         <v>3.5349999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>13</v>
       </c>
@@ -1179,7 +1207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
         <v>14</v>
       </c>
@@ -1202,7 +1230,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
         <v>15</v>
       </c>
@@ -1225,7 +1253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
         <v>16</v>
       </c>
@@ -1248,7 +1276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="8" t="s">
         <v>17</v>
       </c>
@@ -1271,7 +1299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
         <v>18</v>
       </c>
@@ -1294,7 +1322,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="8" t="s">
         <v>20</v>
       </c>
@@ -1317,7 +1345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>23</v>
       </c>
@@ -1340,7 +1368,7 @@
         <v>-0.15909000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="8" t="s">
         <v>7</v>
       </c>
@@ -1363,7 +1391,7 @@
         <v>-0.22727</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="8" t="s">
         <v>8</v>
       </c>
@@ -1386,7 +1414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="8" t="s">
         <v>9</v>
       </c>
@@ -1409,7 +1437,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="8" t="s">
         <v>10</v>
       </c>
@@ -1432,7 +1460,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="8" t="s">
         <v>11</v>
       </c>
@@ -1455,7 +1483,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="8" t="s">
         <v>12</v>
       </c>
@@ -1478,7 +1506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="8" t="s">
         <v>13</v>
       </c>
@@ -1501,7 +1529,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="8" t="s">
         <v>14</v>
       </c>
@@ -1524,7 +1552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="8" t="s">
         <v>15</v>
       </c>
@@ -1547,7 +1575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="8" t="s">
         <v>16</v>
       </c>
@@ -1570,7 +1598,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="8" t="s">
         <v>17</v>
       </c>
@@ -1593,7 +1621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="8" t="s">
         <v>18</v>
       </c>
@@ -1616,7 +1644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="9" t="s">
         <v>20</v>
       </c>
